--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV2.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV2.xlsx
@@ -1033,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,47 +1050,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1113,6 +1077,42 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,9 +1125,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1233,52 +1230,55 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,6 +1409,36 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2004,9 +2034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2066,12 +2094,12 @@
       <c r="N2" s="114"/>
       <c r="O2" s="114"/>
       <c r="P2" s="115"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="21"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="9"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="23"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3" s="101"/>
@@ -2121,7 +2149,7 @@
       <c r="O4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="8">
         <v>1</v>
       </c>
       <c r="Q4" s="87" t="s">
@@ -2138,10 +2166,10 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="92" t="s">
@@ -2167,10 +2195,10 @@
       <c r="T7" s="93"/>
       <c r="U7" s="93"/>
       <c r="V7" s="94"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="95" t="s">
@@ -2200,13 +2228,13 @@
       <c r="T8" s="96"/>
       <c r="U8" s="96"/>
       <c r="V8" s="97"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="83" t="s">
@@ -2218,7 +2246,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="84"/>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="83" t="s">
@@ -2230,14 +2258,14 @@
         <v>24</v>
       </c>
       <c r="M9" s="83"/>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="O9" s="83" t="s">
         <v>26</v>
       </c>
       <c r="P9" s="84"/>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R9" s="83" t="s">
@@ -2245,770 +2273,770 @@
       </c>
       <c r="S9" s="83"/>
       <c r="T9" s="83"/>
-      <c r="U9" s="25" t="s">
+      <c r="U9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="V9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="19"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="18"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="72"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="72"/>
       <c r="M11" s="74"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="8"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="22"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="29"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="72"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="72"/>
       <c r="J12" s="73"/>
       <c r="K12" s="74"/>
       <c r="L12" s="72"/>
       <c r="M12" s="74"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="8"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="22"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
     </row>
     <row r="13" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
       <c r="F13" s="72"/>
       <c r="G13" s="75"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="72"/>
       <c r="J13" s="73"/>
       <c r="K13" s="74"/>
       <c r="L13" s="72"/>
       <c r="M13" s="74"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="8"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="22"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="72"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="72"/>
       <c r="J14" s="73"/>
       <c r="K14" s="74"/>
       <c r="L14" s="72"/>
       <c r="M14" s="74"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="8"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="22"/>
     </row>
     <row r="15" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="72"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="72"/>
       <c r="J15" s="73"/>
       <c r="K15" s="74"/>
       <c r="L15" s="72"/>
       <c r="M15" s="74"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="8"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="22"/>
     </row>
     <row r="16" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
       <c r="F16" s="72"/>
       <c r="G16" s="75"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="72"/>
       <c r="J16" s="73"/>
       <c r="K16" s="74"/>
       <c r="L16" s="72"/>
       <c r="M16" s="74"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="8"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="22"/>
     </row>
     <row r="17" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="72"/>
       <c r="G17" s="75"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="72"/>
       <c r="J17" s="73"/>
       <c r="K17" s="74"/>
       <c r="L17" s="72"/>
       <c r="M17" s="74"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="8"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="22"/>
     </row>
     <row r="18" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
       <c r="F18" s="72"/>
       <c r="G18" s="75"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="72"/>
       <c r="J18" s="73"/>
       <c r="K18" s="74"/>
       <c r="L18" s="72"/>
       <c r="M18" s="74"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="8"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="22"/>
     </row>
     <row r="19" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="129"/>
       <c r="F19" s="72"/>
       <c r="G19" s="75"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="72"/>
       <c r="J19" s="73"/>
       <c r="K19" s="74"/>
       <c r="L19" s="72"/>
       <c r="M19" s="74"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="8"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="22"/>
     </row>
     <row r="20" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="72"/>
       <c r="G20" s="75"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="72"/>
       <c r="J20" s="73"/>
       <c r="K20" s="74"/>
       <c r="L20" s="72"/>
       <c r="M20" s="74"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="8"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="22"/>
     </row>
     <row r="21" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="39"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="70"/>
       <c r="P21" s="71"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="12"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="26"/>
     </row>
     <row r="22" spans="2:22" ht="5.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
     </row>
     <row r="23" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="66"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="65"/>
     </row>
     <row r="24" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="57"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="56"/>
     </row>
     <row r="25" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="60"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="59"/>
     </row>
     <row r="26" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="60"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="59"/>
     </row>
     <row r="27" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="60"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="59"/>
     </row>
     <row r="28" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="60"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
     </row>
     <row r="29" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="60"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="59"/>
     </row>
     <row r="30" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="60"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="59"/>
     </row>
     <row r="31" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="60"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="59"/>
     </row>
     <row r="32" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="60"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="59"/>
     </row>
     <row r="33" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="60"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="59"/>
     </row>
     <row r="34" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="60"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="59"/>
     </row>
     <row r="35" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="60"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="59"/>
     </row>
     <row r="36" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="63"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="62"/>
     </row>
     <row r="37" spans="2:22" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53" t="s">
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53" t="s">
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53" t="s">
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53" t="s">
+      <c r="T38" s="52"/>
+      <c r="U38" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V38" s="54"/>
+      <c r="V38" s="53"/>
     </row>
     <row r="39" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="47" t="s">
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="40" t="s">
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="V39" s="41"/>
+      <c r="V39" s="40"/>
     </row>
     <row r="40" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="47" t="s">
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="40" t="s">
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="V40" s="41"/>
+      <c r="V40" s="40"/>
     </row>
     <row r="41" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
       <c r="U41" s="27" t="s">
         <v>31</v>
       </c>
@@ -3176,21 +3204,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3387,7 +3400,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3404,29 +3451,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV2.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV2.xlsx
@@ -155,7 +155,7 @@
     <t>Facilitated by:</t>
   </si>
   <si>
-    <t>1   OF</t>
+    <t>OF</t>
   </si>
 </sst>
 </file>
@@ -1047,18 +1047,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1113,6 +1107,264 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,15 +1377,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1173,9 +1428,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1185,260 +1437,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1478,7 +1478,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F49A601-B44F-40CC-9109-91B2542186E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F49A601-B44F-40CC-9109-91B2542186E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1528,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95640A34-3ECA-4EB2-B388-CDEA912BA2F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95640A34-3ECA-4EB2-B388-CDEA912BA2F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1607,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8FD638-1829-40C5-8F06-0C3B6D5571AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C8FD638-1829-40C5-8F06-0C3B6D5571AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2050,191 +2052,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B1" s="98"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="107" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="109" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="110"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="112"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="53"/>
     </row>
     <row r="2" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="113" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="9"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="11"/>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="116" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="119" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="120"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="122"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
     </row>
     <row r="4" spans="2:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="123" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="27"/>
+      <c r="O4" s="25">
+        <v>1</v>
+      </c>
+      <c r="P4" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="88"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="32"/>
     </row>
     <row r="5" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="94"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="35"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="95" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="95" t="s">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="97"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="38"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="83" t="s">
@@ -2246,7 +2248,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="84"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="83" t="s">
@@ -2258,14 +2260,14 @@
         <v>24</v>
       </c>
       <c r="M9" s="83"/>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="O9" s="83" t="s">
         <v>26</v>
       </c>
       <c r="P9" s="84"/>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="R9" s="83" t="s">
@@ -2273,774 +2275,774 @@
       </c>
       <c r="S9" s="83"/>
       <c r="T9" s="83"/>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
     </row>
     <row r="10" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="18"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="16"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
     </row>
     <row r="11" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="20"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
     </row>
     <row r="12" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="22"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="20"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
     </row>
     <row r="13" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="20"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
     </row>
     <row r="14" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="129"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="22"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
     </row>
     <row r="16" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="22"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="20"/>
     </row>
     <row r="17" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="20"/>
     </row>
     <row r="18" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="129"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="22"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="20"/>
     </row>
     <row r="20" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="22"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="20"/>
     </row>
     <row r="21" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="130"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="26"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="24"/>
     </row>
     <row r="22" spans="2:22" ht="5.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
     </row>
     <row r="23" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="65"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="109"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="110"/>
     </row>
     <row r="24" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="56"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="101"/>
     </row>
     <row r="25" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="59"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="104"/>
     </row>
     <row r="26" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="59"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="104"/>
     </row>
     <row r="27" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="59"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="104"/>
     </row>
     <row r="28" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="104"/>
     </row>
     <row r="29" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="59"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="104"/>
     </row>
     <row r="30" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="59"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="104"/>
     </row>
     <row r="31" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="59"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="104"/>
     </row>
     <row r="32" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="59"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="104"/>
     </row>
     <row r="33" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="59"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="104"/>
     </row>
     <row r="34" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="59"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="104"/>
     </row>
     <row r="35" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="59"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="103"/>
+      <c r="V35" s="104"/>
     </row>
     <row r="36" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="62"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="106"/>
+      <c r="U36" s="106"/>
+      <c r="V36" s="107"/>
     </row>
     <row r="37" spans="2:22" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52" t="s">
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52" t="s">
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52" t="s">
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52" t="s">
+      <c r="T38" s="97"/>
+      <c r="U38" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="V38" s="53"/>
+      <c r="V38" s="98"/>
     </row>
     <row r="39" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="46" t="s">
+      <c r="C39" s="133"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="39" t="s">
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="V39" s="40"/>
+      <c r="V39" s="125"/>
     </row>
     <row r="40" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46" t="s">
+      <c r="C40" s="127"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="39" t="s">
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="95"/>
+      <c r="U40" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="V40" s="40"/>
+      <c r="V40" s="125"/>
     </row>
     <row r="41" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37" t="s">
+      <c r="C41" s="120"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="27" t="s">
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="123"/>
+      <c r="U41" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="V41" s="28"/>
+      <c r="V41" s="112"/>
     </row>
     <row r="42" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3072,106 +3074,6 @@
     <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="B7:V7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:P8"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="B24:V36"/>
-    <mergeCell ref="B23:V23"/>
     <mergeCell ref="U41:V41"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
@@ -3196,6 +3098,106 @@
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="B24:V36"/>
+    <mergeCell ref="B23:V23"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B7:V7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:P8"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -3204,6 +3206,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3400,36 +3417,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3452,9 +3443,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>